--- a/src/templates/Trainings_Template.xlsx
+++ b/src/templates/Trainings_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C57E14-B7CE-4B87-B47C-FCB190B98E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5D32E-B5CD-4C12-B77B-B9F3F8191E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,16 +260,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="12" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="12" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -520,16 +520,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="8"/>
       <c r="M1" s="1"/>
     </row>
@@ -537,16 +537,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="8"/>
       <c r="M2" s="1"/>
     </row>
@@ -554,16 +554,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="8"/>
       <c r="M3" s="1"/>
     </row>
@@ -571,16 +571,16 @@
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="8"/>
       <c r="M4" s="1"/>
     </row>
@@ -641,10 +641,10 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>44553</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -673,7 +673,7 @@
         <v>300</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>44553</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="M43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6fTshb/V1qRRDQGILNWi6mBqqGS0lsTB21opkY5G1CqCcvP9LKQAK2YTNg7hjan3NM/pdTI8W9Cx0Xx4H012/Q==" saltValue="CmwTxHB3GRMRHkngjPuMFg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>

--- a/src/templates/Trainings_Template.xlsx
+++ b/src/templates/Trainings_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5D32E-B5CD-4C12-B77B-B9F3F8191E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA890F6-B303-42CB-A4AB-F422707807BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="377" yWindow="377" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Regional Office _____________</t>
   </si>
   <si>
-    <t>Regional Office 4</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -500,23 +500,23 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.84375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
     <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.53515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="30" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12.5703125" style="2"/>
+    <col min="14" max="16384" width="12.53515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -533,7 +533,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -550,7 +550,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -567,9 +567,9 @@
       <c r="L3" s="8"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
@@ -584,12 +584,12 @@
       <c r="L4" s="8"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
@@ -607,25 +607,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -640,28 +640,28 @@
       <c r="L6" s="4"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>44553</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I7" s="5">
         <v>10000</v>
@@ -677,7 +677,7 @@
         <v>44553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -692,7 +692,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -707,7 +707,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -722,7 +722,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -737,7 +737,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -752,7 +752,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -767,7 +767,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -782,7 +782,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -797,7 +797,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -812,7 +812,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -827,7 +827,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -842,7 +842,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -857,7 +857,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -872,7 +872,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -887,7 +887,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -902,7 +902,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -917,7 +917,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -932,7 +932,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -947,7 +947,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -962,7 +962,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -977,7 +977,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -992,7 +992,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1007,7 +1007,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1022,7 +1022,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1037,7 +1037,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1052,7 +1052,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1067,7 +1067,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1082,7 +1082,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1097,7 +1097,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1112,7 +1112,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1127,7 +1127,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1142,7 +1142,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1157,7 +1157,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1172,7 +1172,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1187,7 +1187,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1202,7 +1202,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
